--- a/ucberkeley_cs.xlsx
+++ b/ucberkeley_cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>05</t>
   </si>
@@ -94,6 +94,9 @@
     <t>scheme programming</t>
   </si>
   <si>
+    <t>language f,sp</t>
+  </si>
+  <si>
     <t>storage management</t>
   </si>
   <si>
@@ -175,12 +178,18 @@
     <t>mathematical techniques</t>
   </si>
   <si>
+    <t>required f,sp</t>
+  </si>
+  <si>
     <t>performance analysis</t>
   </si>
   <si>
     <t>data base</t>
   </si>
   <si>
+    <t>quantitative perceptual</t>
+  </si>
+  <si>
     <t>physiological aspects</t>
   </si>
   <si>
@@ -193,15 +202,27 @@
     <t>prefix=course satisfies</t>
   </si>
   <si>
+    <t>r&amp;c requirement</t>
+  </si>
+  <si>
     <t>requirement ac</t>
   </si>
   <si>
+    <t>ac suffix=course</t>
+  </si>
+  <si>
     <t>suffix=course satisfies</t>
   </si>
   <si>
+    <t>satisfies american</t>
+  </si>
+  <si>
     <t>american cultures</t>
   </si>
   <si>
+    <t>cultures requirement</t>
+  </si>
+  <si>
     <t>school recipient</t>
   </si>
   <si>
@@ -211,253 +232,280 @@
     <t>business majors</t>
   </si>
   <si>
+    <t>/ electrical</t>
+  </si>
+  <si>
     <t>self-paced introduction</t>
   </si>
   <si>
+    <t>computer sciences</t>
+  </si>
+  <si>
+    <t>restrictions self-paced</t>
+  </si>
+  <si>
+    <t>week sections</t>
+  </si>
+  <si>
+    <t>small-seminar setting</t>
+  </si>
+  <si>
+    <t>campus departments</t>
+  </si>
+  <si>
+    <t>seminars offer</t>
+  </si>
+  <si>
+    <t>sophomores freshman</t>
+  </si>
+  <si>
+    <t>enrollment limits</t>
+  </si>
+  <si>
+    <t>suggested limit</t>
+  </si>
+  <si>
+    <t>machine structures</t>
+  </si>
+  <si>
+    <t>computer security</t>
+  </si>
+  <si>
+    <t>cryptographic protocols</t>
+  </si>
+  <si>
+    <t>parallel programming</t>
+  </si>
+  <si>
+    <t>same material</t>
+  </si>
+  <si>
+    <t>ter enrollment</t>
+  </si>
+  <si>
+    <t>embedded systems</t>
+  </si>
+  <si>
+    <t>service courses</t>
+  </si>
+  <si>
     <t>linked data</t>
   </si>
   <si>
+    <t>experience similar</t>
+  </si>
+  <si>
     <t>higher-order functions</t>
   </si>
   <si>
-    <t>freshman seminars</t>
-  </si>
-  <si>
-    <t>week sections</t>
+    <t>b-cat_ap:b-cat template.qxd</t>
+  </si>
+  <si>
+    <t>pm page</t>
+  </si>
+  <si>
+    <t>computer graphics</t>
+  </si>
+  <si>
+    <t>social implications</t>
+  </si>
+  <si>
+    <t>network security</t>
+  </si>
+  <si>
+    <t>software systems</t>
+  </si>
+  <si>
+    <t>science courses</t>
+  </si>
+  <si>
+    <t>program f,sp</t>
+  </si>
+  <si>
+    <t>gui elements</t>
+  </si>
+  <si>
+    <t>programming project</t>
+  </si>
+  <si>
+    <t>unit sections</t>
+  </si>
+  <si>
+    <t>department computer</t>
+  </si>
+  <si>
+    <t>offered fall</t>
+  </si>
+  <si>
+    <t>units department</t>
+  </si>
+  <si>
+    <t>changes compsci</t>
+  </si>
+  <si>
+    <t>pass/not pass</t>
+  </si>
+  <si>
+    <t>garcia compsci</t>
+  </si>
+  <si>
+    <t>format self-paced</t>
+  </si>
+  <si>
+    <t>comp sci</t>
   </si>
   <si>
     <t>intellectual topic</t>
   </si>
   <si>
-    <t>small-seminar setting</t>
-  </si>
-  <si>
-    <t>campus departments</t>
-  </si>
-  <si>
-    <t>enrollment limited</t>
-  </si>
-  <si>
-    <t>computer sciences</t>
-  </si>
-  <si>
-    <t>seminars offer</t>
-  </si>
-  <si>
-    <t>sophomores freshman</t>
-  </si>
-  <si>
-    <t>enrollment limits</t>
-  </si>
-  <si>
-    <t>suggested limit</t>
-  </si>
-  <si>
-    <t>machine structures</t>
-  </si>
-  <si>
-    <t>computer security</t>
-  </si>
-  <si>
-    <t>cryptographic protocols</t>
-  </si>
-  <si>
-    <t>parallel programming</t>
-  </si>
-  <si>
-    <t>same material</t>
-  </si>
-  <si>
-    <t>language f,sp</t>
-  </si>
-  <si>
-    <t>ter enrollment</t>
-  </si>
-  <si>
-    <t>embedded systems</t>
-  </si>
-  <si>
-    <t>required f,sp</t>
-  </si>
-  <si>
-    <t>service courses</t>
-  </si>
-  <si>
-    <t>program f,sp</t>
-  </si>
-  <si>
-    <t>gui elements</t>
-  </si>
-  <si>
-    <t>b-cat_ap:b-cat template.qxd</t>
-  </si>
-  <si>
-    <t>pm page</t>
-  </si>
-  <si>
-    <t>computer graphics</t>
-  </si>
-  <si>
-    <t>social implications</t>
-  </si>
-  <si>
-    <t>network security</t>
-  </si>
-  <si>
-    <t>software systems</t>
-  </si>
-  <si>
-    <t>science courses</t>
-  </si>
-  <si>
-    <t>programming project</t>
-  </si>
-  <si>
-    <t>unit sections</t>
+    <t>instructors garcia</t>
+  </si>
+  <si>
+    <t>harvey compsci</t>
+  </si>
+  <si>
+    <t>unit department</t>
+  </si>
+  <si>
+    <t>wagner compsci</t>
+  </si>
+  <si>
+    <t>user interface</t>
+  </si>
+  <si>
+    <t>vazirani compsci</t>
+  </si>
+  <si>
+    <t>query languages</t>
+  </si>
+  <si>
+    <t>hellerstein compsci</t>
+  </si>
+  <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>level professional</t>
+  </si>
+  <si>
+    <t>prospective teachers</t>
+  </si>
+  <si>
+    <t>science compsci</t>
+  </si>
+  <si>
+    <t>advanced placement</t>
+  </si>
+  <si>
+    <t>placement computer</t>
+  </si>
+  <si>
+    <t>hilfinger compsci</t>
+  </si>
+  <si>
+    <t>patterson compsci</t>
+  </si>
+  <si>
+    <t>instructors papadimitriou</t>
+  </si>
+  <si>
+    <t>papadimitriou rao</t>
+  </si>
+  <si>
+    <t>science statistics</t>
+  </si>
+  <si>
+    <t>technical elective</t>
+  </si>
+  <si>
+    <t>off-campus companies</t>
+  </si>
+  <si>
+    <t>specific aspects</t>
+  </si>
+  <si>
+    <t>written report</t>
+  </si>
+  <si>
+    <t>science electrical</t>
+  </si>
+  <si>
+    <t>description group</t>
+  </si>
+  <si>
+    <t>new developments</t>
+  </si>
+  <si>
+    <t>developments units</t>
+  </si>
+  <si>
+    <t>semester see</t>
+  </si>
+  <si>
+    <t>science division</t>
+  </si>
+  <si>
+    <t>division announcements</t>
+  </si>
+  <si>
+    <t>announcements units</t>
+  </si>
+  <si>
+    <t>decal catalog</t>
+  </si>
+  <si>
+    <t>see computer</t>
+  </si>
+  <si>
+    <t>data science</t>
+  </si>
+  <si>
+    <t>seminar catalog</t>
+  </si>
+  <si>
+    <t>self-paced courses</t>
+  </si>
+  <si>
+    <t>courses catalog</t>
+  </si>
+  <si>
+    <t>systems catalog</t>
+  </si>
+  <si>
+    <t>digital design</t>
+  </si>
+  <si>
+    <t>science catalog</t>
+  </si>
+  <si>
+    <t>description freshman</t>
+  </si>
+  <si>
+    <t>sophomore seminars</t>
+  </si>
+  <si>
+    <t>integrated circuits</t>
+  </si>
+  <si>
+    <t>description self-paced</t>
+  </si>
+  <si>
+    <t>linear algebra</t>
+  </si>
+  <si>
+    <t>programmers catalog</t>
+  </si>
+  <si>
+    <t>description introduction</t>
+  </si>
+  <si>
+    <t>cs scholars</t>
   </si>
   <si>
     <t>computer programs</t>
   </si>
   <si>
-    <t>advanced placement</t>
-  </si>
-  <si>
-    <t>department computer</t>
-  </si>
-  <si>
-    <t>offered fall</t>
-  </si>
-  <si>
-    <t>units department</t>
-  </si>
-  <si>
-    <t>comp sci</t>
-  </si>
-  <si>
-    <t>unit department</t>
-  </si>
-  <si>
-    <t>user interface</t>
-  </si>
-  <si>
-    <t>query languages</t>
-  </si>
-  <si>
-    <t>machine learning</t>
-  </si>
-  <si>
-    <t>prospective teachers</t>
-  </si>
-  <si>
-    <t>placement computer</t>
-  </si>
-  <si>
-    <t>instructors papadimitriou</t>
-  </si>
-  <si>
-    <t>papadimitriou rao</t>
-  </si>
-  <si>
-    <t>science statistics</t>
-  </si>
-  <si>
-    <t>off-campus companies</t>
-  </si>
-  <si>
-    <t>specific aspects</t>
-  </si>
-  <si>
-    <t>written report</t>
-  </si>
-  <si>
-    <t>system implementation</t>
-  </si>
-  <si>
-    <t>design tools</t>
-  </si>
-  <si>
-    <t>evaluation methods</t>
-  </si>
-  <si>
-    <t>instructors bartlett</t>
-  </si>
-  <si>
-    <t>surface representation</t>
-  </si>
-  <si>
-    <t>franklin hellerstein</t>
-  </si>
-  <si>
-    <t>individual research</t>
-  </si>
-  <si>
-    <t>conducting research</t>
-  </si>
-  <si>
-    <t>description group</t>
-  </si>
-  <si>
-    <t>new developments</t>
-  </si>
-  <si>
-    <t>developments units</t>
-  </si>
-  <si>
-    <t>semester see</t>
-  </si>
-  <si>
-    <t>science division</t>
-  </si>
-  <si>
-    <t>division announcements</t>
-  </si>
-  <si>
-    <t>announcements units</t>
-  </si>
-  <si>
-    <t>decal catalog</t>
-  </si>
-  <si>
-    <t>see computer</t>
-  </si>
-  <si>
-    <t>data science</t>
-  </si>
-  <si>
-    <t>seminar catalog</t>
-  </si>
-  <si>
-    <t>self-paced courses</t>
-  </si>
-  <si>
-    <t>courses catalog</t>
-  </si>
-  <si>
-    <t>systems catalog</t>
-  </si>
-  <si>
-    <t>digital design</t>
-  </si>
-  <si>
-    <t>science catalog</t>
-  </si>
-  <si>
-    <t>sophomore seminars</t>
-  </si>
-  <si>
-    <t>integrated circuits</t>
-  </si>
-  <si>
-    <t>linear algebra</t>
-  </si>
-  <si>
-    <t>programmers catalog</t>
-  </si>
-  <si>
-    <t>description introduction</t>
-  </si>
-  <si>
-    <t>cs scholars</t>
+    <t>functional object-oriented</t>
   </si>
   <si>
     <t>abstraction using</t>
@@ -472,6 +520,9 @@
     <t>system design</t>
   </si>
   <si>
+    <t>description advanced</t>
+  </si>
+  <si>
     <t>group research</t>
   </si>
   <si>
@@ -487,22 +538,10 @@
     <t>various subjects</t>
   </si>
   <si>
+    <t>year informal</t>
+  </si>
+  <si>
     <t>informal group</t>
-  </si>
-  <si>
-    <t>special problems</t>
-  </si>
-  <si>
-    <t>problems group</t>
-  </si>
-  <si>
-    <t>group participation</t>
-  </si>
-  <si>
-    <t>comprehensive design</t>
-  </si>
-  <si>
-    <t>design problems</t>
   </si>
 </sst>
 </file>
@@ -860,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O150"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1491,34 +1530,34 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1532,40 +1571,40 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1579,40 +1618,40 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1632,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1644,22 +1683,22 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1714,34 +1753,34 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1773,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1820,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1867,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1914,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1961,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2002,16 +2041,16 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2020,10 +2059,10 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2049,10 +2088,10 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -2061,28 +2100,28 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2114,16 +2153,16 @@
         <v>3</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>6</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>6</v>
@@ -2161,22 +2200,22 @@
         <v>3</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O28">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2190,10 +2229,10 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -2202,28 +2241,28 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2237,40 +2276,40 @@
         <v>3</v>
       </c>
       <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="E30">
+      <c r="M30">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
       <c r="N30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2290,10 +2329,10 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -2302,22 +2341,22 @@
         <v>2</v>
       </c>
       <c r="J31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2331,40 +2370,40 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N32">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2396,22 +2435,22 @@
         <v>3</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2443,22 +2482,22 @@
         <v>3</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2478,10 +2517,10 @@
         <v>3</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -2490,22 +2529,22 @@
         <v>3</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2519,10 +2558,10 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2531,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2566,10 +2605,10 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2613,10 +2652,10 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2631,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2660,10 +2699,10 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -2719,16 +2758,16 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2772,10 +2811,10 @@
         <v>3</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2854,16 +2893,16 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2901,16 +2940,16 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2936,28 +2975,28 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2983,22 +3022,22 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3030,22 +3069,22 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3089,16 +3128,16 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3130,13 +3169,13 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -3177,13 +3216,13 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -3230,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -3277,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3324,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3371,16 +3410,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3418,16 +3457,16 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3465,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -3506,16 +3545,16 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3571,22 +3610,22 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3600,16 +3639,16 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3618,22 +3657,22 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3647,16 +3686,16 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3665,22 +3704,22 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3794,16 +3833,16 @@
         <v>4</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3812,16 +3851,16 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3835,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3882,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3906,16 +3945,16 @@
         <v>7</v>
       </c>
       <c r="L65">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N65">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O65">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3929,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3953,16 +3992,16 @@
         <v>7</v>
       </c>
       <c r="L66">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N66">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O66">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3976,40 +4015,40 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4029,19 +4068,19 @@
         <v>3</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4076,34 +4115,34 @@
         <v>3</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4123,34 +4162,34 @@
         <v>3</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4164,28 +4203,28 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -4211,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>3</v>
@@ -4258,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F73">
         <v>3</v>
@@ -4270,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4305,10 +4344,10 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -4317,28 +4356,28 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4352,10 +4391,10 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <v>3</v>
@@ -4370,10 +4409,10 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -4405,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4452,34 +4491,34 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4499,16 +4538,16 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4546,16 +4585,16 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4593,16 +4632,16 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4640,34 +4679,34 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4693,16 +4732,16 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -4740,13 +4779,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4787,28 +4826,28 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4834,16 +4873,16 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -4881,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4928,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4987,16 +5026,16 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O88">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5069,16 +5108,16 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -5116,16 +5155,16 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -5163,16 +5202,16 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -5216,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="K93">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -5263,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="K94">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -5310,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="K95">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -5357,22 +5396,22 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K96">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
       <c r="N96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5404,22 +5443,22 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5451,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K98">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -5498,10 +5537,10 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -5545,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -5592,22 +5631,22 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5639,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -5686,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -5733,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -5780,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -5827,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -5874,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -5921,22 +5960,22 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5968,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -6015,22 +6054,22 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6062,10 +6101,10 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -6109,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -6159,7 +6198,7 @@
         <v>3</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -6203,22 +6242,22 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M114">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="O114">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6250,22 +6289,22 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N115">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="O115">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6297,22 +6336,22 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="O116">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6344,22 +6383,22 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M117">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N117">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O117">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6391,22 +6430,22 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O118">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6438,22 +6477,22 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M119">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6485,22 +6524,22 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L120">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O120">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6532,22 +6571,22 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L121">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O121">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6579,22 +6618,22 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M122">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O122">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -6626,22 +6665,22 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O123">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -6673,22 +6712,22 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L124">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M124">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O124">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -6720,22 +6759,22 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L125">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M125">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O125">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -6773,16 +6812,16 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M126">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N126">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="O126">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -6820,16 +6859,16 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="M127">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N127">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="O127">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -6867,16 +6906,16 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="M128">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N128">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="O128">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -6914,16 +6953,16 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M129">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N129">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O129">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -6961,16 +7000,16 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M130">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N130">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O130">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -7008,16 +7047,16 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M131">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N131">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O131">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -7055,16 +7094,16 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N132">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="O132">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -7102,16 +7141,16 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N133">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="O133">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -7149,16 +7188,16 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N134">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O134">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -7196,16 +7235,16 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N135">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O135">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -7243,16 +7282,16 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N136">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O136">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -7290,16 +7329,16 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N137">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O137">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:15">
@@ -7337,16 +7376,16 @@
         <v>0</v>
       </c>
       <c r="L138">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N138">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O138">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:15">
@@ -7384,16 +7423,16 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N139">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O139">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:15">
@@ -7431,16 +7470,16 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N140">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O140">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -7478,16 +7517,16 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N141">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O141">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -7525,16 +7564,16 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M142">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -7572,16 +7611,16 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N143">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -7619,16 +7658,16 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -7666,16 +7705,16 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N145">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O145">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -7713,16 +7752,16 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N146">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O146">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -7760,16 +7799,16 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O147">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -7807,16 +7846,16 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M148">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O148">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -7854,16 +7893,16 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O149">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -7901,15 +7940,626 @@
         <v>0</v>
       </c>
       <c r="L150">
+        <v>6</v>
+      </c>
+      <c r="M150">
+        <v>6</v>
+      </c>
+      <c r="N150">
+        <v>6</v>
+      </c>
+      <c r="O150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>6</v>
+      </c>
+      <c r="M151">
+        <v>6</v>
+      </c>
+      <c r="N151">
+        <v>6</v>
+      </c>
+      <c r="O151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>6</v>
+      </c>
+      <c r="M152">
+        <v>6</v>
+      </c>
+      <c r="N152">
+        <v>6</v>
+      </c>
+      <c r="O152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>6</v>
+      </c>
+      <c r="M153">
+        <v>6</v>
+      </c>
+      <c r="N153">
+        <v>6</v>
+      </c>
+      <c r="O153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>6</v>
+      </c>
+      <c r="M154">
+        <v>6</v>
+      </c>
+      <c r="N154">
+        <v>6</v>
+      </c>
+      <c r="O154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>6</v>
+      </c>
+      <c r="M155">
+        <v>6</v>
+      </c>
+      <c r="N155">
+        <v>6</v>
+      </c>
+      <c r="O155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>6</v>
+      </c>
+      <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
+        <v>6</v>
+      </c>
+      <c r="O156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>6</v>
+      </c>
+      <c r="M157">
+        <v>6</v>
+      </c>
+      <c r="N157">
+        <v>6</v>
+      </c>
+      <c r="O157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
         <v>5</v>
       </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
+      <c r="M158">
         <v>5</v>
       </c>
-      <c r="O150">
+      <c r="N158">
+        <v>5</v>
+      </c>
+      <c r="O158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>5</v>
+      </c>
+      <c r="M159">
+        <v>5</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>5</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>5</v>
+      </c>
+      <c r="M161">
+        <v>5</v>
+      </c>
+      <c r="N161">
+        <v>5</v>
+      </c>
+      <c r="O161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>5</v>
+      </c>
+      <c r="M162">
+        <v>5</v>
+      </c>
+      <c r="N162">
+        <v>5</v>
+      </c>
+      <c r="O162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>5</v>
+      </c>
+      <c r="M163">
+        <v>5</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163">
         <v>5</v>
       </c>
     </row>
